--- a/biology/Médecine/Droits_des_patients/Droits_des_patients.xlsx
+++ b/biology/Médecine/Droits_des_patients/Droits_des_patients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les droits des patients sont les droits que possèdent les personnes qui utilisent le système de santé, qui consultent le personnel des soins de santé ou qui subissent une intervention médicale. Le consentement aux soins est une notion clé qui figure dans la plupart des législations nationales concernant les droits des patients.
 </t>
@@ -511,12 +523,14 @@
           <t>Les droits fondamentaux du patient</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, le droit à la santé est reconnu par une série de textes nationaux et internationaux.
 Au niveau international : 
 Selon la constitution de l'OMS et la déclaration universelle, la conscience internationale reconnaît en fin de compte le droit de chaque individu d'exiger de son pays un minimum de prestations sanitaires qui soient conformes à la dignité humaine, au niveau de développement économique et social du pays et au degré de perfection atteint par la science médicale.
-le droit international de la santé doit son existence et son effectivité à la fois aux individus et à l'Etat. Il serait ainsi une double obligation morale. Chaque individu serait tenu à préserver lui-même sa propre santé, alors que l'Etat devrait fournir à chacun un accès libre au service de santé[1].
+le droit international de la santé doit son existence et son effectivité à la fois aux individus et à l'Etat. Il serait ainsi une double obligation morale. Chaque individu serait tenu à préserver lui-même sa propre santé, alors que l'Etat devrait fournir à chacun un accès libre au service de santé.
 Au niveau national :
 Le droit des patients au niveau national est généralement basé sur une combinaison de lois, de réglementations et de principes éthiques.
 </t>
@@ -547,9 +561,11 @@
           <t>Droit Marocain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Maroc a manifesté son intérêt pour la reconnaissance du droit à la santé pour l'ensemble de la population[2], un droit dont l'origine repose sur la religion islamique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Maroc a manifesté son intérêt pour la reconnaissance du droit à la santé pour l'ensemble de la population, un droit dont l'origine repose sur la religion islamique.
 </t>
         </is>
       </c>
